--- a/База_данных_по_автобусам.xlsx
+++ b/База_данных_по_автобусам.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#\06_09_2022_Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E007C-66AA-4E03-A198-75E5110FFFAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E90763-9E37-4A52-9152-DBB9FB3C908E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{04A35005-9A29-4FBE-87F6-5334326DB899}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04A35005-9A29-4FBE-87F6-5334326DB899}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -180,9 +180,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,8 +199,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B658866-D208-4F2F-A368-3B45828DFC0E}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,384 +535,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>140</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>140</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>97</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>235</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0.28125</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783DD20D-FB3F-415D-882A-0DF1CA175BD6}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -944,110 +944,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>140</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>44810.260416666664</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>44682</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>140</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>44810.267361111109</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>97</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>44810.274305555555</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>44652</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>235</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>44810.28125</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>44621</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1073,102 +1073,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>140</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>500</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>140</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1000</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>97</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>1300</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>1300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>235</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>700</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>700</v>
       </c>
     </row>
